--- a/static/MedicineUploads/NotMinValueSearchList.xlsx
+++ b/static/MedicineUploads/NotMinValueSearchList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="377">
   <si>
     <t>Drug Name</t>
   </si>
@@ -76,1075 +76,1042 @@
     <t>1000</t>
   </si>
   <si>
-    <t>DISPOSABLE GLOVES MEDIUM</t>
+    <t xml:space="preserve">METOCLOPROMAMIDE HYDROCHLORIC 10 Mg         </t>
+  </si>
+  <si>
+    <t>T1709192</t>
+  </si>
+  <si>
+    <t>30-08-2019</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOXICILLIN TRIHYDRATE T-125 </t>
+  </si>
+  <si>
+    <t>ASK7002R</t>
+  </si>
+  <si>
+    <t>31-08-2018</t>
+  </si>
+  <si>
+    <t>31-08-2019</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>QUETIAPINE          50 MG</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>30-09-2018</t>
+  </si>
+  <si>
+    <t>30-09-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFLOXACIN 200 MG                 </t>
+  </si>
+  <si>
+    <t>17NT1032</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL  5 MG (serenes)</t>
+  </si>
+  <si>
+    <t>LOT27S17015</t>
+  </si>
+  <si>
+    <t>30-10-2019</t>
+  </si>
+  <si>
+    <t>MEBENDAZOLE  100 MG</t>
+  </si>
+  <si>
+    <t>001A8ABC</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENICILLIN G POTASSIUM   400 MG </t>
+  </si>
+  <si>
+    <t>VVD0226</t>
+  </si>
+  <si>
+    <t>Setraline HydroChrloride 50mg</t>
+  </si>
+  <si>
+    <t>HT3073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIFAMPICIN AND ISONICID CAPSULES USP 450 plus 300MG  </t>
+  </si>
+  <si>
+    <t>Capsule</t>
+  </si>
+  <si>
+    <t>A706979</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>ALLOPURINOL-100 MG</t>
+  </si>
+  <si>
+    <t>AKT2073</t>
+  </si>
+  <si>
+    <t>31-10-2018</t>
+  </si>
+  <si>
+    <t>31-10-2019</t>
+  </si>
+  <si>
+    <t>ETAMSYLATE  500 MG</t>
+  </si>
+  <si>
+    <t>MGT-17569</t>
+  </si>
+  <si>
+    <t>30-11-2018</t>
+  </si>
+  <si>
+    <t>30-11-2019</t>
+  </si>
+  <si>
+    <t>FENOFIBRATE (STANLIP) 145 MG</t>
+  </si>
+  <si>
+    <t>BSS2768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEVOFLOXACIN   500 MG </t>
+  </si>
+  <si>
+    <t>PC8003</t>
+  </si>
+  <si>
+    <t>30-12-2018</t>
+  </si>
+  <si>
+    <t>30-12-2019</t>
+  </si>
+  <si>
+    <t>IMIPREMIN HYDROCHLORIDE 25 MG</t>
+  </si>
+  <si>
+    <t>IMIPREMIN HYDRO</t>
+  </si>
+  <si>
+    <t>B COMPLEX SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>Syrup</t>
+  </si>
+  <si>
+    <t>ZA18453</t>
+  </si>
+  <si>
+    <t>01-07-2018</t>
+  </si>
+  <si>
+    <t>SR1</t>
+  </si>
+  <si>
+    <t>SOMATOSTATIN INJ 3 MG</t>
+  </si>
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>SM2021</t>
+  </si>
+  <si>
+    <t>31-12-2018</t>
+  </si>
+  <si>
+    <t>31-12-2019</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dydrogesterone tab 10 MG Duphaston</t>
+  </si>
+  <si>
+    <t>KAVA9012</t>
+  </si>
+  <si>
+    <t>30-01-2019</t>
+  </si>
+  <si>
+    <t>30-01-2020</t>
+  </si>
+  <si>
+    <t>SODIUM VALPORATE AND  VALPROIC ACID CR 300 MG</t>
+  </si>
+  <si>
+    <t>AP8042</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Calcium Syrup 200 ML</t>
+  </si>
+  <si>
+    <t>SL0305</t>
+  </si>
+  <si>
+    <t>01-08-2018</t>
+  </si>
+  <si>
+    <t>PHENOBARBITONE SYR 100 ML</t>
+  </si>
+  <si>
+    <t>GRA8013</t>
+  </si>
+  <si>
+    <t>S2 L3</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>BETAHISTINE TABLETS 16MG</t>
+  </si>
+  <si>
+    <t>SSD80718</t>
+  </si>
+  <si>
+    <t>31-01-2018</t>
+  </si>
+  <si>
+    <t>31-01-2020</t>
+  </si>
+  <si>
+    <t>ETHAMBUTOL 800 MG</t>
+  </si>
+  <si>
+    <t>JK17006</t>
+  </si>
+  <si>
+    <t>31-01-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACICLOVIR TABLET  800mg                </t>
+  </si>
+  <si>
+    <t>VPT-18100T</t>
+  </si>
+  <si>
+    <t>28-02-2018</t>
+  </si>
+  <si>
+    <t>28-02-2020</t>
+  </si>
+  <si>
+    <t>DISPERSIBLE AMOCYCILLIN AND CLAVULANATE TAB 228.5 MG</t>
+  </si>
+  <si>
+    <t>LVC18126</t>
+  </si>
+  <si>
+    <t>28-02-2019</t>
+  </si>
+  <si>
+    <t>METOPROLOL TARTRATE  50 MG</t>
+  </si>
+  <si>
+    <t>INA8020</t>
+  </si>
+  <si>
+    <t>LACTOGEN POWDER</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>9053661L1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>SOYAL MILK</t>
+  </si>
+  <si>
+    <t>D180408</t>
+  </si>
+  <si>
+    <t>STREPTOKINASE INJ IP 1500000 IU</t>
+  </si>
+  <si>
+    <t>LSTKB2802</t>
+  </si>
+  <si>
+    <t>31-03-2018</t>
+  </si>
+  <si>
+    <t>AMOXYCILLIN AND POTASSIUM CLAVULANATE   228.5 MG</t>
+  </si>
+  <si>
+    <t>TR1 L</t>
+  </si>
+  <si>
+    <t>FLUCONAZOLE 150 MG</t>
+  </si>
+  <si>
+    <t>G1228003</t>
+  </si>
+  <si>
+    <t>30-03-2020</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>METHOTREXATE 7.5 MG</t>
+  </si>
+  <si>
+    <t>G802728</t>
+  </si>
+  <si>
+    <t>30-03-2019</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>DOXYCYCLINE AND LACTIC ACID BACILLUS CAPSULES 100 MG</t>
+  </si>
+  <si>
+    <t>58CDS536</t>
+  </si>
+  <si>
+    <t>TETRACYCLINE HYDROCHLORIDE CAPSULES 250 MG</t>
+  </si>
+  <si>
+    <t>ITGC-002</t>
+  </si>
+  <si>
+    <t>TERBINAFINE OINT 10GM</t>
+  </si>
+  <si>
+    <t>Ointment</t>
+  </si>
+  <si>
+    <t>DQN8004</t>
+  </si>
+  <si>
+    <t>01-04-2018</t>
+  </si>
+  <si>
+    <t>R6 L2</t>
+  </si>
+  <si>
+    <t>NITROFURANTOIN SR TABLETS 100 MG</t>
+  </si>
+  <si>
+    <t>112218009</t>
+  </si>
+  <si>
+    <t>30-04-2019</t>
+  </si>
+  <si>
+    <t>DOMPERIDOM  10 MG</t>
+  </si>
+  <si>
+    <t>ZD18590</t>
+  </si>
+  <si>
+    <t>30-05-2020</t>
+  </si>
+  <si>
+    <t>LOBETALOL 100 MG</t>
+  </si>
+  <si>
+    <t>LKD1T010</t>
+  </si>
+  <si>
+    <t>30-05-2019</t>
+  </si>
+  <si>
+    <t>SALBUTAMOL SULPHATE TABLETS 4MG</t>
+  </si>
+  <si>
+    <t>K470175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIFEDEPINE 10 MG </t>
+  </si>
+  <si>
+    <t>M819166</t>
+  </si>
+  <si>
+    <t>TONOFERON SYR 200 ML</t>
+  </si>
+  <si>
+    <t>8085</t>
+  </si>
+  <si>
+    <t>01-12-2018</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>CEFIXIME DISPERSIBLE  200 MG</t>
+  </si>
+  <si>
+    <t>UTCSXA8143</t>
+  </si>
+  <si>
+    <t>31-05-2018</t>
+  </si>
+  <si>
+    <t>31-05-2020</t>
+  </si>
+  <si>
+    <t>FRUSEMIDE TABLETS 40MG</t>
+  </si>
+  <si>
+    <t>7-11591</t>
+  </si>
+  <si>
+    <t>30-06-2020</t>
+  </si>
+  <si>
+    <t>ROSUVASTATIN CALCIUM TABLETS 10MG</t>
+  </si>
+  <si>
+    <t>QD18135</t>
+  </si>
+  <si>
+    <t>30-06-2019</t>
+  </si>
+  <si>
+    <t>AMPICILLIN TRIHYDRATE CAPSULE IP</t>
+  </si>
+  <si>
+    <t>GABAPENTIN 300 MG</t>
+  </si>
+  <si>
+    <t>CC-180042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAMADOL HYDROCHLORIDE  50 MG      </t>
+  </si>
+  <si>
+    <t>PWRAS02</t>
+  </si>
+  <si>
+    <t>AMPICILLIN TRIHYDRATE 500 MG</t>
+  </si>
+  <si>
+    <t>C-12076</t>
+  </si>
+  <si>
+    <t>R3 L1</t>
+  </si>
+  <si>
+    <t>DIGOXIN  0.25 MG</t>
+  </si>
+  <si>
+    <t>T-11669</t>
+  </si>
+  <si>
+    <t>30-07-2019</t>
+  </si>
+  <si>
+    <t>30-07-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICLOXACILLIN SODIUM  250 MG  </t>
+  </si>
+  <si>
+    <t>KD1902001</t>
+  </si>
+  <si>
+    <t>MUCAINE GEL SYR 200 ML</t>
+  </si>
+  <si>
+    <t>ZA18495</t>
+  </si>
+  <si>
+    <t>S2 L1</t>
+  </si>
+  <si>
+    <t>DICLOXACILLIAN SODIUM CAPS 500MG</t>
+  </si>
+  <si>
+    <t>CR3 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACICLOVIR TABLETS  400mg                </t>
+  </si>
+  <si>
+    <t>VPT-18411D</t>
+  </si>
+  <si>
+    <t>31-07-2018</t>
+  </si>
+  <si>
+    <t>31-07-2020</t>
+  </si>
+  <si>
+    <t>CLOTRIMAZOLE VAGINAL TABLETS 100MG</t>
+  </si>
+  <si>
+    <t>ZD18776</t>
+  </si>
+  <si>
+    <t>31-07-2019</t>
+  </si>
+  <si>
+    <t>CLOMIFEN 25 MG</t>
+  </si>
+  <si>
+    <t>SA74279</t>
+  </si>
+  <si>
+    <t>30-08-2018</t>
+  </si>
+  <si>
+    <t>30-08-2020</t>
+  </si>
+  <si>
+    <t>RAMIPRIL TABLETS 5 MG</t>
+  </si>
+  <si>
+    <t>BA83472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMIN A AND D </t>
+  </si>
+  <si>
+    <t>VHF18073</t>
+  </si>
+  <si>
+    <t>Progesteron 100 MG</t>
+  </si>
+  <si>
+    <t>DM660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERBINAFINE HYDROCHLORIDE CREAM 15 G </t>
+  </si>
+  <si>
+    <t>0746</t>
+  </si>
+  <si>
+    <t>ANTACID TABLETS</t>
+  </si>
+  <si>
+    <t>ZD1811029</t>
+  </si>
+  <si>
+    <t>30-09-2020</t>
+  </si>
+  <si>
+    <t>IBUPROFEN PARACETAMOL 400 MG</t>
+  </si>
+  <si>
+    <t>C171217</t>
+  </si>
+  <si>
+    <t>TRAMSULOSIN HYDROCHLORIDE 0.4 MG  AND FINASTERIDE 5 MG</t>
+  </si>
+  <si>
+    <t>FT181105</t>
+  </si>
+  <si>
+    <t>BECLAMETHASONE NEOMYCIN SULPHATE OINT LC 15 G</t>
+  </si>
+  <si>
+    <t>B390</t>
+  </si>
+  <si>
+    <t>01-10-2018</t>
+  </si>
+  <si>
+    <t>S4 L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOSARTAN 50 MG                                  </t>
+  </si>
+  <si>
+    <t>ZD181045</t>
+  </si>
+  <si>
+    <t>TR2 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERROUS FUMARATE,FOLIC ACID AND ZINC SULPHATE (Iron )  </t>
+  </si>
+  <si>
+    <t>T-0542/18</t>
+  </si>
+  <si>
+    <t>30-10-2020</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>DISODIUM HYDROGEN CITRATE SYR 100ML</t>
+  </si>
+  <si>
+    <t>ILKS-013</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMIN C  500                            </t>
+  </si>
+  <si>
+    <t>TE19128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THYROXINE SODIUM  100 MG </t>
+  </si>
+  <si>
+    <t>R0356E</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 400 MG TAB</t>
+  </si>
+  <si>
+    <t>DDL652</t>
+  </si>
+  <si>
+    <t>BACLOFEN 10MG TABLET</t>
+  </si>
+  <si>
+    <t>EMP2877</t>
+  </si>
+  <si>
+    <t>31-10-2020</t>
+  </si>
+  <si>
+    <t>DI-ETHYLCARBAMAZINECITRATE 100 MG</t>
+  </si>
+  <si>
+    <t>AL3407</t>
+  </si>
+  <si>
+    <t>30-11-2020</t>
+  </si>
+  <si>
+    <t>HYDROCHLORITHIOZIDE TABLET 25 MG</t>
+  </si>
+  <si>
+    <t>VPT-18647D</t>
+  </si>
+  <si>
+    <t>LOSARTON POTTASIUM 50mg AND HYDROCHLOTHIAZIDE 12.5 MG</t>
+  </si>
+  <si>
+    <t>SLH-17104</t>
+  </si>
+  <si>
+    <t>SODIUM VALPORATE AND VALPROIC ACID 500 MG</t>
+  </si>
+  <si>
+    <t>77EPB18006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOXYCILLIN  TRIHYDRATE  500 MG </t>
+  </si>
+  <si>
+    <t>8283418</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLECALCIFEROL CAPSULE </t>
+  </si>
+  <si>
+    <t>0061218D</t>
+  </si>
+  <si>
+    <t>Ceffixim 30 ML</t>
+  </si>
+  <si>
+    <t>CD180324</t>
+  </si>
+  <si>
+    <t>OFLOXACIN SYR 30 ML</t>
+  </si>
+  <si>
+    <t>ATPB8005DA</t>
+  </si>
+  <si>
+    <t>Ceftriaxone  1 GM.</t>
+  </si>
+  <si>
+    <t>ICX-0491</t>
+  </si>
+  <si>
+    <t>OMEPRAZOLE 20 MG</t>
+  </si>
+  <si>
+    <t>PC9035</t>
+  </si>
+  <si>
+    <t>30-12-2020</t>
+  </si>
+  <si>
+    <t>PROMETHAZINE HTDROCHLORIDE SYR 400 ML</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>01-01-2019</t>
+  </si>
+  <si>
+    <t>NORETHISTERONE TABLETS 5 MG</t>
+  </si>
+  <si>
+    <t>AAAA29</t>
+  </si>
+  <si>
+    <t>30-01-2021</t>
+  </si>
+  <si>
+    <t>ACETOZOLAMIDE (DIAMOX)</t>
+  </si>
+  <si>
+    <t>W25829</t>
+  </si>
+  <si>
+    <t>31-01-2021</t>
+  </si>
+  <si>
+    <t>ATORVASTALINE TABLET 10 MG</t>
+  </si>
+  <si>
+    <t>M0T181391</t>
+  </si>
+  <si>
+    <t>CHLORDIAZEPOXIDE 25 MG</t>
+  </si>
+  <si>
+    <t>LBB8003</t>
+  </si>
+  <si>
+    <t>ATENELOL TABLET 50 MG</t>
+  </si>
+  <si>
+    <t>ZD19192</t>
+  </si>
+  <si>
+    <t>28-02-2021</t>
+  </si>
+  <si>
+    <t>CALCIUM AND VITAMIN D3 TABLET IP 500 MG</t>
+  </si>
+  <si>
+    <t>PRB-190302</t>
+  </si>
+  <si>
+    <t>DOXYLAMINE SUCCINATE With PYRIDOXINE HYDROCHLORIDE AND FOLIC ACID 10 MG</t>
+  </si>
+  <si>
+    <t>4189001</t>
+  </si>
+  <si>
+    <t>HYDROXYCHLOROQUINE TABLETS 200MG</t>
+  </si>
+  <si>
+    <t>GPD067009AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRTAZAPINE  15 MG            </t>
+  </si>
+  <si>
+    <t>MT182387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALCIUM CARBONATE AND VITAMIN D3 </t>
+  </si>
+  <si>
+    <t>01-03-2019</t>
+  </si>
+  <si>
+    <t>DICLOFENAC GEL LC 30 GRM</t>
+  </si>
+  <si>
+    <t>E48</t>
+  </si>
+  <si>
+    <t>S4 L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANITIDINE TABLETS  150 MG                   </t>
+  </si>
+  <si>
+    <t>BR9731068</t>
+  </si>
+  <si>
+    <t>30-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFLOXACIN 400 MG                  </t>
+  </si>
+  <si>
+    <t>S756259</t>
+  </si>
+  <si>
+    <t>SONADERM NM OINT 15 GM</t>
+  </si>
+  <si>
+    <t>N1901</t>
+  </si>
+  <si>
+    <t>01-04-2019</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Cefepime/ 1g</t>
+  </si>
+  <si>
+    <t>A19027PP</t>
+  </si>
+  <si>
+    <t>01-05-2019</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>IR8 L</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM 0.5 MG</t>
+  </si>
+  <si>
+    <t>AR5T-021</t>
+  </si>
+  <si>
+    <t>30-04-2021</t>
+  </si>
+  <si>
+    <t>LACTULOSE SYR 100 ML</t>
+  </si>
+  <si>
+    <t>19407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B COMPLEX TABLET </t>
+  </si>
+  <si>
+    <t>02962T</t>
+  </si>
+  <si>
+    <t>30-05-2021</t>
+  </si>
+  <si>
+    <t>KETAMIN HYDROCLORIDE INJ IP 5 ML</t>
+  </si>
+  <si>
+    <t>KMI804</t>
+  </si>
+  <si>
+    <t>30-06-2018</t>
+  </si>
+  <si>
+    <t>31-05-2021</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 5 MG</t>
+  </si>
+  <si>
+    <t>VLB8005</t>
+  </si>
+  <si>
+    <t>30-06-2021</t>
+  </si>
+  <si>
+    <t>FRUSEMIDE AND SPIRONOLACTONE  50MG</t>
+  </si>
+  <si>
+    <t>FRUSEMIDE AND S</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>Pentoxifylline Extended 400 MG</t>
+  </si>
+  <si>
+    <t>9NA003</t>
+  </si>
+  <si>
+    <t>PROMETHAZINE HYDROCHLORIDE 10 MG</t>
+  </si>
+  <si>
+    <t>PCD0535</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>Trifluoperazine AND Benzahexal Hydrochloride</t>
+  </si>
+  <si>
+    <t>2F79E011</t>
+  </si>
+  <si>
+    <t>KREMAFIN SYR 170 ML</t>
+  </si>
+  <si>
+    <t>IKML-009</t>
+  </si>
+  <si>
+    <t>01-09-2018</t>
+  </si>
+  <si>
+    <t>ACECLOFENAC AND PARACETAMOL 100MG</t>
+  </si>
+  <si>
+    <t>IPAT-002</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHENOBARBITONE TABLETS 60 MG           </t>
+  </si>
+  <si>
+    <t>GDB8008</t>
+  </si>
+  <si>
+    <t>COTRIMOXAZOLE-SS</t>
+  </si>
+  <si>
+    <t>RID1805</t>
+  </si>
+  <si>
+    <t>30-10-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIFEDEFIN  10 MG                     </t>
+  </si>
+  <si>
+    <t>ACG8029</t>
+  </si>
+  <si>
+    <t>30-11-2021</t>
+  </si>
+  <si>
+    <t>Terbinafine 250 MG</t>
+  </si>
+  <si>
+    <t>TZ2T-023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVERMECTIN DISPERSIBLE TABLETS </t>
+  </si>
+  <si>
+    <t>EV19001</t>
+  </si>
+  <si>
+    <t>30-12-2021</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 200 MG</t>
+  </si>
+  <si>
+    <t>G1873</t>
+  </si>
+  <si>
+    <t>HYOSCINE BUTYL BROMID 10 MG</t>
+  </si>
+  <si>
+    <t>BSA19003</t>
+  </si>
+  <si>
+    <t>31-12-2021</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin Hydrochloriden500 MG</t>
+  </si>
+  <si>
+    <t>JK19014</t>
+  </si>
+  <si>
+    <t>31-01-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYRAZINAMIDE    750 MG                   </t>
+  </si>
+  <si>
+    <t>JK18003</t>
+  </si>
+  <si>
+    <t>28-02-2022</t>
+  </si>
+  <si>
+    <t>METRONIDAZOLE BENZOATE SYR 60 ML</t>
+  </si>
+  <si>
+    <t>ASM9006</t>
+  </si>
+  <si>
+    <t>S1 L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETOFYLLINE THEOPHYLLINE PROLONGED  300 R                   </t>
+  </si>
+  <si>
+    <t>IG900652</t>
+  </si>
+  <si>
+    <t>ESCITALOPRAM TABLETS 10MG</t>
+  </si>
+  <si>
+    <t>EMU0999</t>
+  </si>
+  <si>
+    <t>30-03-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMITRIPHYLINE HYDROCHLORIDE 25mg </t>
+  </si>
+  <si>
+    <t>VY0572</t>
+  </si>
+  <si>
+    <t>30-04-2022</t>
+  </si>
+  <si>
+    <t>DISPO SYRINGE 10 ML DV</t>
   </si>
   <si>
     <t>Consumable</t>
-  </si>
-  <si>
-    <t>SN01</t>
-  </si>
-  <si>
-    <t>30-05-2021</t>
-  </si>
-  <si>
-    <t>30-06-2016</t>
-  </si>
-  <si>
-    <t>SR1 T</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METOCLOPROMAMIDE HYDROCHLORIC 10 Mg         </t>
-  </si>
-  <si>
-    <t>T1709192</t>
-  </si>
-  <si>
-    <t>30-08-2019</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMOXICILLIN TRIHYDRATE T-125 </t>
-  </si>
-  <si>
-    <t>ASK7002R</t>
-  </si>
-  <si>
-    <t>31-08-2018</t>
-  </si>
-  <si>
-    <t>31-08-2019</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>QUETIAPINE          50 MG</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>30-09-2018</t>
-  </si>
-  <si>
-    <t>30-09-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFLOXACIN 200 MG                 </t>
-  </si>
-  <si>
-    <t>17NT1032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENICILLIN G POTASSIUM   400 MG </t>
-  </si>
-  <si>
-    <t>VVD0226</t>
-  </si>
-  <si>
-    <t>30-10-2019</t>
-  </si>
-  <si>
-    <t>Setraline HydroChrloride 50mg</t>
-  </si>
-  <si>
-    <t>HT3073</t>
-  </si>
-  <si>
-    <t>MEBENDAZOLE  100 MG</t>
-  </si>
-  <si>
-    <t>001A8ABC</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIFAMPICIN AND ISONICID CAPSULES USP 450 plus 300MG  </t>
-  </si>
-  <si>
-    <t>Capsule</t>
-  </si>
-  <si>
-    <t>A706979</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>HALOPERIDOL  5 MG (serenes)</t>
-  </si>
-  <si>
-    <t>LOT27S17015</t>
-  </si>
-  <si>
-    <t>ALLOPURINOL-100 MG</t>
-  </si>
-  <si>
-    <t>AKT2073</t>
-  </si>
-  <si>
-    <t>31-10-2018</t>
-  </si>
-  <si>
-    <t>31-10-2019</t>
-  </si>
-  <si>
-    <t>ETAMSYLATE  500 MG</t>
-  </si>
-  <si>
-    <t>MGT-17569</t>
-  </si>
-  <si>
-    <t>30-11-2018</t>
-  </si>
-  <si>
-    <t>30-11-2019</t>
-  </si>
-  <si>
-    <t>FENOFIBRATE (STANLIP) 145 MG</t>
-  </si>
-  <si>
-    <t>BSS2768</t>
-  </si>
-  <si>
-    <t>B COMPLEX SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>Syrup</t>
-  </si>
-  <si>
-    <t>ZA18453</t>
-  </si>
-  <si>
-    <t>01-07-2018</t>
-  </si>
-  <si>
-    <t>30-12-2019</t>
-  </si>
-  <si>
-    <t>SR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEVOFLOXACIN   500 MG </t>
-  </si>
-  <si>
-    <t>PC8003</t>
-  </si>
-  <si>
-    <t>30-12-2018</t>
-  </si>
-  <si>
-    <t>IMIPREMIN HYDROCHLORIDE 25 MG</t>
-  </si>
-  <si>
-    <t>IMIPREMIN HYDRO</t>
-  </si>
-  <si>
-    <t>SOMATOSTATIN INJ 3 MG</t>
-  </si>
-  <si>
-    <t>Injection</t>
-  </si>
-  <si>
-    <t>SM2021</t>
-  </si>
-  <si>
-    <t>31-12-2018</t>
-  </si>
-  <si>
-    <t>31-12-2019</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>SODIUM VALPORATE AND  VALPROIC ACID CR 300 MG</t>
-  </si>
-  <si>
-    <t>AP8042</t>
-  </si>
-  <si>
-    <t>30-01-2019</t>
-  </si>
-  <si>
-    <t>30-01-2020</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>Dydrogesterone tab 10 MG Duphaston</t>
-  </si>
-  <si>
-    <t>KAVA9012</t>
-  </si>
-  <si>
-    <t>Calcium Syrup 200 ML</t>
-  </si>
-  <si>
-    <t>SL0305</t>
-  </si>
-  <si>
-    <t>01-08-2018</t>
-  </si>
-  <si>
-    <t>PHENOBARBITONE SYR 100 ML</t>
-  </si>
-  <si>
-    <t>GRA8013</t>
-  </si>
-  <si>
-    <t>S2 L3</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>ETHAMBUTOL 800 MG</t>
-  </si>
-  <si>
-    <t>JK17006</t>
-  </si>
-  <si>
-    <t>31-01-2019</t>
-  </si>
-  <si>
-    <t>31-01-2020</t>
-  </si>
-  <si>
-    <t>BETAHISTINE TABLETS 16MG</t>
-  </si>
-  <si>
-    <t>SSD80718</t>
-  </si>
-  <si>
-    <t>31-01-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACICLOVIR TABLET  800mg                </t>
-  </si>
-  <si>
-    <t>VPT-18100T</t>
-  </si>
-  <si>
-    <t>28-02-2018</t>
-  </si>
-  <si>
-    <t>28-02-2020</t>
-  </si>
-  <si>
-    <t>SOYAL MILK</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>D180408</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>METOPROLOL TARTRATE  50 MG</t>
-  </si>
-  <si>
-    <t>INA8020</t>
-  </si>
-  <si>
-    <t>STREPTOKINASE INJ IP 1500000 IU</t>
-  </si>
-  <si>
-    <t>LSTKB2802</t>
-  </si>
-  <si>
-    <t>31-03-2018</t>
-  </si>
-  <si>
-    <t>AMOXYCILLIN AND POTASSIUM CLAVULANATE   228.5 MG</t>
-  </si>
-  <si>
-    <t>LVC18126</t>
-  </si>
-  <si>
-    <t>TR1 L</t>
-  </si>
-  <si>
-    <t>LACTOGEN POWDER</t>
-  </si>
-  <si>
-    <t>9053661L1</t>
-  </si>
-  <si>
-    <t>28-02-2019</t>
-  </si>
-  <si>
-    <t>DISPERSIBLE AMOCYCILLIN AND CLAVULANATE TAB 228.5 MG</t>
-  </si>
-  <si>
-    <t>DOXYCYCLINE AND LACTIC ACID BACILLUS CAPSULES 100 MG</t>
-  </si>
-  <si>
-    <t>58CDS536</t>
-  </si>
-  <si>
-    <t>30-03-2019</t>
-  </si>
-  <si>
-    <t>30-03-2020</t>
-  </si>
-  <si>
-    <t>TERBINAFINE OINT 10GM</t>
-  </si>
-  <si>
-    <t>Ointment</t>
-  </si>
-  <si>
-    <t>DQN8004</t>
-  </si>
-  <si>
-    <t>01-04-2018</t>
-  </si>
-  <si>
-    <t>R6 L2</t>
-  </si>
-  <si>
-    <t>FLUCONAZOLE 150 MG</t>
-  </si>
-  <si>
-    <t>G1228003</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>METHOTREXATE 7.5 MG</t>
-  </si>
-  <si>
-    <t>G802728</t>
-  </si>
-  <si>
-    <t>TETRACYCLINE HYDROCHLORIDE CAPSULES 250 MG</t>
-  </si>
-  <si>
-    <t>ITGC-002</t>
-  </si>
-  <si>
-    <t>NITROFURANTOIN SR TABLETS 100 MG</t>
-  </si>
-  <si>
-    <t>112218009</t>
-  </si>
-  <si>
-    <t>30-04-2019</t>
-  </si>
-  <si>
-    <t>SALBUTAMOL SULPHATE TABLETS 4MG</t>
-  </si>
-  <si>
-    <t>K470175</t>
-  </si>
-  <si>
-    <t>30-05-2019</t>
-  </si>
-  <si>
-    <t>30-05-2020</t>
-  </si>
-  <si>
-    <t>DOMPERIDOM  10 MG</t>
-  </si>
-  <si>
-    <t>ZD18590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIFEDEPINE 10 MG </t>
-  </si>
-  <si>
-    <t>M819166</t>
-  </si>
-  <si>
-    <t>TONOFERON SYR 200 ML</t>
-  </si>
-  <si>
-    <t>8085</t>
-  </si>
-  <si>
-    <t>01-12-2018</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>LOBETALOL 100 MG</t>
-  </si>
-  <si>
-    <t>LKD1T010</t>
-  </si>
-  <si>
-    <t>CEFIXIME DISPERSIBLE  200 MG</t>
-  </si>
-  <si>
-    <t>UTCSXA8143</t>
-  </si>
-  <si>
-    <t>31-05-2018</t>
-  </si>
-  <si>
-    <t>31-05-2020</t>
-  </si>
-  <si>
-    <t>GABAPENTIN 300 MG</t>
-  </si>
-  <si>
-    <t>CC-180042</t>
-  </si>
-  <si>
-    <t>30-06-2019</t>
-  </si>
-  <si>
-    <t>30-06-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMADOL HYDROCHLORIDE  50 MG      </t>
-  </si>
-  <si>
-    <t>PWRAS02</t>
-  </si>
-  <si>
-    <t>AMPICILLIN TRIHYDRATE CAPSULE IP</t>
-  </si>
-  <si>
-    <t>AMPICILLIN TRIHYDRATE 500 MG</t>
-  </si>
-  <si>
-    <t>C-12076</t>
-  </si>
-  <si>
-    <t>R3 L1</t>
-  </si>
-  <si>
-    <t>ROSUVASTATIN CALCIUM TABLETS 10MG</t>
-  </si>
-  <si>
-    <t>QD18135</t>
-  </si>
-  <si>
-    <t>FRUSEMIDE TABLETS 40MG</t>
-  </si>
-  <si>
-    <t>7-11591</t>
-  </si>
-  <si>
-    <t>MUCAINE GEL SYR 200 ML</t>
-  </si>
-  <si>
-    <t>ZA18495</t>
-  </si>
-  <si>
-    <t>30-07-2020</t>
-  </si>
-  <si>
-    <t>S2 L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DICLOXACILLIN SODIUM  250 MG  </t>
-  </si>
-  <si>
-    <t>KD1902001</t>
-  </si>
-  <si>
-    <t>30-07-2019</t>
-  </si>
-  <si>
-    <t>DIGOXIN  0.25 MG</t>
-  </si>
-  <si>
-    <t>T-11669</t>
-  </si>
-  <si>
-    <t>DICLOXACILLIAN SODIUM CAPS 500MG</t>
-  </si>
-  <si>
-    <t>CR3 L</t>
-  </si>
-  <si>
-    <t>CLOTRIMAZOLE VAGINAL TABLETS 100MG</t>
-  </si>
-  <si>
-    <t>ZD18776</t>
-  </si>
-  <si>
-    <t>31-07-2019</t>
-  </si>
-  <si>
-    <t>31-07-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACICLOVIR TABLETS  400mg                </t>
-  </si>
-  <si>
-    <t>VPT-18411D</t>
-  </si>
-  <si>
-    <t>31-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERBINAFINE HYDROCHLORIDE CREAM 15 G </t>
-  </si>
-  <si>
-    <t>0746</t>
-  </si>
-  <si>
-    <t>30-08-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITAMIN A AND D </t>
-  </si>
-  <si>
-    <t>VHF18073</t>
-  </si>
-  <si>
-    <t>CLOMIFEN 25 MG</t>
-  </si>
-  <si>
-    <t>SA74279</t>
-  </si>
-  <si>
-    <t>30-08-2018</t>
-  </si>
-  <si>
-    <t>RAMIPRIL TABLETS 5 MG</t>
-  </si>
-  <si>
-    <t>BA83472</t>
-  </si>
-  <si>
-    <t>Progesteron 100 MG</t>
-  </si>
-  <si>
-    <t>DM660</t>
-  </si>
-  <si>
-    <t>IBUPROFEN PARACETAMOL 400 MG</t>
-  </si>
-  <si>
-    <t>C171217</t>
-  </si>
-  <si>
-    <t>30-09-2020</t>
-  </si>
-  <si>
-    <t>TRAMSULOSIN HYDROCHLORIDE 0.4 MG  AND FINASTERIDE 5 MG</t>
-  </si>
-  <si>
-    <t>FT181105</t>
-  </si>
-  <si>
-    <t>ANTACID TABLETS</t>
-  </si>
-  <si>
-    <t>ZD1811029</t>
-  </si>
-  <si>
-    <t>BECLAMETHASONE NEOMYCIN SULPHATE OINT LC 15 G</t>
-  </si>
-  <si>
-    <t>B390</t>
-  </si>
-  <si>
-    <t>01-10-2018</t>
-  </si>
-  <si>
-    <t>S4 L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOSARTAN 50 MG                                  </t>
-  </si>
-  <si>
-    <t>ZD181045</t>
-  </si>
-  <si>
-    <t>TR2 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERROUS FUMARATE,FOLIC ACID AND ZINC SULPHATE (Iron )  </t>
-  </si>
-  <si>
-    <t>T-0542/18</t>
-  </si>
-  <si>
-    <t>30-10-2020</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITAMIN C  500                            </t>
-  </si>
-  <si>
-    <t>TE19128</t>
-  </si>
-  <si>
-    <t>IBUPROFEN 400 MG TAB</t>
-  </si>
-  <si>
-    <t>DDL652</t>
-  </si>
-  <si>
-    <t>DISODIUM HYDROGEN CITRATE SYR 100ML</t>
-  </si>
-  <si>
-    <t>ILKS-013</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THYROXINE SODIUM  100 MG </t>
-  </si>
-  <si>
-    <t>R0356E</t>
-  </si>
-  <si>
-    <t>BACLOFEN 10MG TABLET</t>
-  </si>
-  <si>
-    <t>EMP2877</t>
-  </si>
-  <si>
-    <t>31-10-2020</t>
-  </si>
-  <si>
-    <t>Ceftriaxone  1 GM.</t>
-  </si>
-  <si>
-    <t>ICX-0491</t>
-  </si>
-  <si>
-    <t>30-11-2020</t>
-  </si>
-  <si>
-    <t>LOSARTON POTTASIUM 50mg AND HYDROCHLOTHIAZIDE 12.5 MG</t>
-  </si>
-  <si>
-    <t>SLH-17104</t>
-  </si>
-  <si>
-    <t>HYDROCHLORITHIOZIDE TABLET 25 MG</t>
-  </si>
-  <si>
-    <t>VPT-18647D</t>
-  </si>
-  <si>
-    <t>DI-ETHYLCARBAMAZINECITRATE 100 MG</t>
-  </si>
-  <si>
-    <t>AL3407</t>
-  </si>
-  <si>
-    <t>SODIUM VALPORATE AND VALPROIC ACID 500 MG</t>
-  </si>
-  <si>
-    <t>77EPB18006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOLECALCIFEROL CAPSULE </t>
-  </si>
-  <si>
-    <t>0061218D</t>
-  </si>
-  <si>
-    <t>OFLOXACIN SYR 30 ML</t>
-  </si>
-  <si>
-    <t>ATPB8005DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMOXYCILLIN  TRIHYDRATE  500 MG </t>
-  </si>
-  <si>
-    <t>8283418</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>Ceffixim 30 ML</t>
-  </si>
-  <si>
-    <t>CD180324</t>
-  </si>
-  <si>
-    <t>PROMETHAZINE HTDROCHLORIDE SYR 400 ML</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>01-01-2019</t>
-  </si>
-  <si>
-    <t>30-12-2020</t>
-  </si>
-  <si>
-    <t>OMEPRAZOLE 20 MG</t>
-  </si>
-  <si>
-    <t>PC9035</t>
-  </si>
-  <si>
-    <t>NORETHISTERONE TABLETS 5 MG</t>
-  </si>
-  <si>
-    <t>AAAA29</t>
-  </si>
-  <si>
-    <t>30-01-2021</t>
-  </si>
-  <si>
-    <t>ATORVASTALINE TABLET 10 MG</t>
-  </si>
-  <si>
-    <t>M0T181391</t>
-  </si>
-  <si>
-    <t>31-01-2021</t>
-  </si>
-  <si>
-    <t>CHLORDIAZEPOXIDE 25 MG</t>
-  </si>
-  <si>
-    <t>LBB8003</t>
-  </si>
-  <si>
-    <t>ACETOZOLAMIDE (DIAMOX)</t>
-  </si>
-  <si>
-    <t>W25829</t>
-  </si>
-  <si>
-    <t>ATENELOL TABLET 50 MG</t>
-  </si>
-  <si>
-    <t>ZD19192</t>
-  </si>
-  <si>
-    <t>28-02-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRTAZAPINE  15 MG            </t>
-  </si>
-  <si>
-    <t>MT182387</t>
-  </si>
-  <si>
-    <t>BLOOD BAG 100 ML</t>
-  </si>
-  <si>
-    <t>BB1903092</t>
-  </si>
-  <si>
-    <t>01-03-2019</t>
-  </si>
-  <si>
-    <t>S1 LT</t>
-  </si>
-  <si>
-    <t>DICLOFENAC GEL LC 30 GRM</t>
-  </si>
-  <si>
-    <t>E48</t>
-  </si>
-  <si>
-    <t>S4 L2</t>
-  </si>
-  <si>
-    <t>ENEMA SODIUM PHOSPHATE</t>
-  </si>
-  <si>
-    <t>Saline</t>
-  </si>
-  <si>
-    <t>G151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR10 </t>
-  </si>
-  <si>
-    <t>CALCIUM AND VITAMIN D3 TABLET IP 500 MG</t>
-  </si>
-  <si>
-    <t>PRB-190302</t>
-  </si>
-  <si>
-    <t>HYDROXYCHLOROQUINE TABLETS 200MG</t>
-  </si>
-  <si>
-    <t>GPD067009AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCIUM CARBONATE AND VITAMIN D3 </t>
-  </si>
-  <si>
-    <t>DOXYLAMINE SUCCINATE With PYRIDOXINE HYDROCHLORIDE AND FOLIC ACID 10 MG</t>
-  </si>
-  <si>
-    <t>4189001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RANITIDINE TABLETS  150 MG                   </t>
-  </si>
-  <si>
-    <t>BR9731068</t>
-  </si>
-  <si>
-    <t>30-03-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFLOXACIN 400 MG                  </t>
-  </si>
-  <si>
-    <t>S756259</t>
-  </si>
-  <si>
-    <t>SONADERM NM OINT 15 GM</t>
-  </si>
-  <si>
-    <t>N1901</t>
-  </si>
-  <si>
-    <t>01-04-2019</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Cefepime/ 1g</t>
-  </si>
-  <si>
-    <t>A19027PP</t>
-  </si>
-  <si>
-    <t>01-05-2019</t>
-  </si>
-  <si>
-    <t>01-04-2021</t>
-  </si>
-  <si>
-    <t>IR8 L</t>
-  </si>
-  <si>
-    <t>LACTULOSE SYR 100 ML</t>
-  </si>
-  <si>
-    <t>19407</t>
-  </si>
-  <si>
-    <t>30-04-2021</t>
-  </si>
-  <si>
-    <t>CLONAZEPAM 0.5 MG</t>
-  </si>
-  <si>
-    <t>AR5T-021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B COMPLEX TABLET </t>
-  </si>
-  <si>
-    <t>02962T</t>
-  </si>
-  <si>
-    <t>KETAMIN HYDROCLORIDE INJ IP 5 ML</t>
-  </si>
-  <si>
-    <t>KMI804</t>
-  </si>
-  <si>
-    <t>30-06-2018</t>
-  </si>
-  <si>
-    <t>31-05-2021</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>DIAZEPAM 5 MG</t>
-  </si>
-  <si>
-    <t>VLB8005</t>
-  </si>
-  <si>
-    <t>30-06-2021</t>
-  </si>
-  <si>
-    <t>FRUSEMIDE AND SPIRONOLACTONE  50MG</t>
-  </si>
-  <si>
-    <t>FRUSEMIDE AND S</t>
-  </si>
-  <si>
-    <t>30-07-2021</t>
-  </si>
-  <si>
-    <t>Pentoxifylline Extended 400 MG</t>
-  </si>
-  <si>
-    <t>9NA003</t>
-  </si>
-  <si>
-    <t>KREMAFIN SYR 170 ML</t>
-  </si>
-  <si>
-    <t>IKML-009</t>
-  </si>
-  <si>
-    <t>01-09-2018</t>
-  </si>
-  <si>
-    <t>30-08-2021</t>
-  </si>
-  <si>
-    <t>PROMETHAZINE HYDROCHLORIDE 10 MG</t>
-  </si>
-  <si>
-    <t>PCD0535</t>
-  </si>
-  <si>
-    <t>Trifluoperazine AND Benzahexal Hydrochloride</t>
-  </si>
-  <si>
-    <t>2F79E011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHENOBARBITONE TABLETS 60 MG           </t>
-  </si>
-  <si>
-    <t>GDB8008</t>
-  </si>
-  <si>
-    <t>30-09-2021</t>
-  </si>
-  <si>
-    <t>ACECLOFENAC AND PARACETAMOL 100MG</t>
-  </si>
-  <si>
-    <t>IPAT-002</t>
-  </si>
-  <si>
-    <t>COTRIMOXAZOLE-SS</t>
-  </si>
-  <si>
-    <t>RID1805</t>
-  </si>
-  <si>
-    <t>30-10-2021</t>
-  </si>
-  <si>
-    <t>Terbinafine 250 MG</t>
-  </si>
-  <si>
-    <t>TZ2T-023</t>
-  </si>
-  <si>
-    <t>30-11-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIFEDEFIN  10 MG                     </t>
-  </si>
-  <si>
-    <t>ACG8029</t>
-  </si>
-  <si>
-    <t>IBUPROFEN 200 MG</t>
-  </si>
-  <si>
-    <t>G1873</t>
-  </si>
-  <si>
-    <t>30-12-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVERMECTIN DISPERSIBLE TABLETS </t>
-  </si>
-  <si>
-    <t>EV19001</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>HYOSCINE BUTYL BROMID 10 MG</t>
-  </si>
-  <si>
-    <t>BSA19003</t>
-  </si>
-  <si>
-    <t>31-12-2021</t>
-  </si>
-  <si>
-    <t>Ciprofloxacin Hydrochloriden500 MG</t>
-  </si>
-  <si>
-    <t>JK19014</t>
-  </si>
-  <si>
-    <t>31-01-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETOFYLLINE THEOPHYLLINE PROLONGED  300 R                   </t>
-  </si>
-  <si>
-    <t>IG900652</t>
-  </si>
-  <si>
-    <t>28-02-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PYRAZINAMIDE    750 MG                   </t>
-  </si>
-  <si>
-    <t>JK18003</t>
-  </si>
-  <si>
-    <t>METRONIDAZOLE BENZOATE SYR 60 ML</t>
-  </si>
-  <si>
-    <t>ASM9006</t>
-  </si>
-  <si>
-    <t>S1 L1</t>
-  </si>
-  <si>
-    <t>ESCITALOPRAM TABLETS 10MG</t>
-  </si>
-  <si>
-    <t>EMU0999</t>
-  </si>
-  <si>
-    <t>30-03-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMITRIPHYLINE HYDROCHLORIDE 25mg </t>
-  </si>
-  <si>
-    <t>VY0572</t>
-  </si>
-  <si>
-    <t>30-04-2022</t>
-  </si>
-  <si>
-    <t>DISPO SYRINGE 10 ML DV</t>
   </si>
   <si>
     <t>7371010G2</t>
@@ -1518,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1607,43 +1574,43 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
@@ -1651,25 +1618,25 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
@@ -1677,24 +1644,24 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1703,24 +1670,24 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1729,24 +1696,24 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1755,24 +1722,24 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1781,24 +1748,24 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1807,50 +1774,50 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1859,25 +1826,25 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
@@ -1885,24 +1852,24 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1911,25 +1878,25 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
         <v>62</v>
       </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
@@ -1937,85 +1904,85 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
         <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2023,42 +1990,42 @@
         <v>77</v>
       </c>
       <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>80</v>
       </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -2067,102 +2034,102 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
         <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -2171,21 +2138,21 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
         <v>101</v>
@@ -2197,24 +2164,24 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -2223,30 +2190,30 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
         <v>83</v>
@@ -2254,111 +2221,111 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -2367,10 +2334,10 @@
         <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -2379,154 +2346,154 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -2535,24 +2502,24 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -2561,24 +2528,24 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -2587,76 +2554,76 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G43">
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -2665,24 +2632,24 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" t="s">
         <v>158</v>
       </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" t="s">
-        <v>160</v>
-      </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -2691,154 +2658,154 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G47">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="E49" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2847,128 +2814,128 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E52" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F52" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" t="s">
         <v>178</v>
       </c>
-      <c r="F53" t="s">
-        <v>53</v>
-      </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F55" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" t="s">
         <v>187</v>
       </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" t="s">
-        <v>189</v>
-      </c>
       <c r="E56" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -2977,25 +2944,25 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" t="s">
         <v>191</v>
       </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" t="s">
-        <v>193</v>
-      </c>
-      <c r="E57" t="s">
-        <v>190</v>
-      </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
@@ -3003,154 +2970,154 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="G58">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E60" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -3159,154 +3126,154 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="E65" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="H65" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" t="s">
         <v>213</v>
       </c>
-      <c r="B66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" t="s">
-        <v>215</v>
-      </c>
-      <c r="E66" t="s">
-        <v>208</v>
-      </c>
-      <c r="F66" t="s">
-        <v>216</v>
-      </c>
       <c r="G66">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" t="s">
+        <v>216</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67">
+        <v>4000</v>
+      </c>
+      <c r="H67" t="s">
         <v>217</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>218</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" t="s">
-        <v>208</v>
-      </c>
-      <c r="F67" t="s">
-        <v>219</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" t="s">
         <v>220</v>
       </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>221</v>
-      </c>
-      <c r="D68" t="s">
-        <v>222</v>
-      </c>
-      <c r="E68" t="s">
-        <v>222</v>
-      </c>
-      <c r="F68" t="s">
-        <v>13</v>
-      </c>
       <c r="G68">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E69" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
@@ -3315,76 +3282,76 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F70" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F71" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -3393,24 +3360,24 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E73" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -3419,50 +3386,50 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F74" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="G74">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D75" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E75" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
@@ -3471,24 +3438,24 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E76" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -3497,232 +3464,232 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C77" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D77" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E77" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H77" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E78" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="E79" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D80" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G80">
         <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D81" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F81" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="G81">
-        <v>400</v>
+        <v>221</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="E82" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F82" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D83" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E83" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G83">
         <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D84" t="s">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="E84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -3731,24 +3698,24 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -3757,24 +3724,24 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D87" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -3783,24 +3750,24 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D88" t="s">
         <v>104</v>
       </c>
       <c r="E88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -3809,24 +3776,24 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D89" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E89" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -3835,24 +3802,24 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
@@ -3861,233 +3828,233 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="E91" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F91" t="s">
-        <v>280</v>
+        <v>13</v>
       </c>
       <c r="G91">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="E92" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F92" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="G92">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="E93" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F93" t="s">
-        <v>287</v>
+        <v>117</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="E94" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>281</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H94" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E95" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H95" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
+        <v>124</v>
       </c>
       <c r="E96" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F96" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C97" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" t="s">
+        <v>293</v>
+      </c>
+      <c r="E98" t="s">
+        <v>294</v>
+      </c>
+      <c r="F98" t="s">
         <v>295</v>
       </c>
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" t="s">
-        <v>296</v>
-      </c>
-      <c r="D98" t="s">
-        <v>128</v>
-      </c>
-      <c r="E98" t="s">
-        <v>297</v>
-      </c>
-      <c r="F98" t="s">
-        <v>13</v>
-      </c>
       <c r="G98">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="H98" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" t="s">
         <v>298</v>
       </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" t="s">
-        <v>299</v>
-      </c>
-      <c r="D99" t="s">
-        <v>127</v>
-      </c>
-      <c r="E99" t="s">
-        <v>297</v>
-      </c>
       <c r="F99" t="s">
         <v>13</v>
       </c>
@@ -4095,99 +4062,99 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
+        <v>299</v>
+      </c>
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" t="s">
         <v>300</v>
       </c>
-      <c r="B100" t="s">
-        <v>130</v>
-      </c>
-      <c r="C100" t="s">
-        <v>301</v>
-      </c>
       <c r="D100" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E100" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F100" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H100" t="s">
-        <v>303</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D101" t="s">
-        <v>306</v>
+        <v>137</v>
       </c>
       <c r="E101" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F101" t="s">
-        <v>308</v>
+        <v>117</v>
       </c>
       <c r="G101">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D102" t="s">
         <v>306</v>
       </c>
       <c r="E102" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F102" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G102">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>35</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D103" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E103" t="s">
         <v>311</v>
@@ -4199,76 +4166,76 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
+        <v>312</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>313</v>
+      </c>
+      <c r="D104" t="s">
         <v>314</v>
       </c>
-      <c r="B104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" t="s">
-        <v>315</v>
-      </c>
-      <c r="D104" t="s">
-        <v>143</v>
-      </c>
       <c r="E104" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="F104" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
+        <v>315</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
         <v>316</v>
       </c>
-      <c r="B105" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105" t="s">
-        <v>317</v>
-      </c>
       <c r="D105" t="s">
-        <v>318</v>
+        <v>173</v>
       </c>
       <c r="E105" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F105" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>320</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D106" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="E106" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -4277,24 +4244,24 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B107" t="s">
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D107" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="E107" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
@@ -4303,76 +4270,76 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
-        <v>178</v>
+        <v>324</v>
       </c>
       <c r="E108" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H108" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D109" t="s">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F109" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="G109">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B110" t="s">
         <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="E110" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
@@ -4381,21 +4348,21 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B111" t="s">
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D111" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="E111" t="s">
         <v>332</v>
@@ -4407,24 +4374,24 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D112" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="E112" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
@@ -4433,24 +4400,24 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D113" t="s">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c r="E113" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
@@ -4459,24 +4426,24 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B114" t="s">
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D114" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E114" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -4485,50 +4452,50 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D115" t="s">
-        <v>347</v>
+        <v>62</v>
       </c>
       <c r="E115" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D116" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
@@ -4537,47 +4504,47 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D117" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E117" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F117" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D118" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="E118" t="s">
         <v>352</v>
@@ -4589,102 +4556,102 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>355</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C119" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="E119" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>355</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>49</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D120" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="E120" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D121" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F121" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D122" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
@@ -4693,33 +4660,33 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
+        <v>364</v>
+      </c>
+      <c r="B123" t="s">
+        <v>365</v>
+      </c>
+      <c r="C123" t="s">
+        <v>366</v>
+      </c>
+      <c r="D123" t="s">
         <v>367</v>
       </c>
-      <c r="B123" t="s">
-        <v>67</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
         <v>368</v>
-      </c>
-      <c r="D123" t="s">
-        <v>279</v>
-      </c>
-      <c r="E123" t="s">
-        <v>364</v>
       </c>
       <c r="F123" t="s">
         <v>369</v>
       </c>
       <c r="G123">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="H123" t="s">
-        <v>355</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4733,7 +4700,7 @@
         <v>371</v>
       </c>
       <c r="D124" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="E124" t="s">
         <v>372</v>
@@ -4745,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4753,103 +4720,25 @@
         <v>373</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C125" t="s">
         <v>374</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>375</v>
       </c>
       <c r="E125" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
-        <v>376</v>
-      </c>
-      <c r="B126" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" t="s">
-        <v>377</v>
-      </c>
-      <c r="D126" t="s">
-        <v>378</v>
-      </c>
-      <c r="E126" t="s">
-        <v>379</v>
-      </c>
-      <c r="F126" t="s">
-        <v>380</v>
-      </c>
-      <c r="G126">
-        <v>165</v>
-      </c>
-      <c r="H126" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" t="s">
-        <v>381</v>
-      </c>
-      <c r="B127" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" t="s">
-        <v>382</v>
-      </c>
-      <c r="D127" t="s">
-        <v>58</v>
-      </c>
-      <c r="E127" t="s">
-        <v>383</v>
-      </c>
-      <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>384</v>
-      </c>
-      <c r="B128" t="s">
-        <v>110</v>
-      </c>
-      <c r="C128" t="s">
-        <v>385</v>
-      </c>
-      <c r="D128" t="s">
-        <v>386</v>
-      </c>
-      <c r="E128" t="s">
-        <v>387</v>
-      </c>
-      <c r="F128" t="s">
-        <v>112</v>
-      </c>
-      <c r="G128">
-        <v>5</v>
-      </c>
-      <c r="H128" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
